--- a/src/main/java/games.xlsx
+++ b/src/main/java/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\Ankle\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D009ACBE-7CFB-4FB2-BA83-D35A6352587D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8BFF35-242D-4249-99D7-564798059D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{452B83E8-9793-7541-B2A2-F06D9F6E25C9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>https://www.google.com/logos/2010/pacman10-i.html</t>
   </si>
@@ -42,64 +42,52 @@
     <t>Titlte</t>
   </si>
   <si>
-    <t>Dorsiflexion</t>
-  </si>
-  <si>
-    <t>Plantarflexion</t>
-  </si>
-  <si>
-    <t>Inversion</t>
-  </si>
-  <si>
-    <t>Eversion</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>https://www.google.com/search?safe=strict&amp;ei=GhQ1YPvLD9GdgQam5r2IBQ&amp;q=google+snake&amp;oq=google+snake&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEMQCMgIIADICCAAyAggAMgIIADIGCAAQFhAeMgYIABAWEB4yBggAEBYQHjIGCAAQFhAeMgYIABAWEB46BwgAEEcQsAM6BAgAEENQsaUjWLetI2DhriNoAXACeACAAYMBiAG4A5IBAzUuMZgBAKABAaoBB2d3cy13aXrIAQjAAQE&amp;sclient=gws-wiz&amp;ved=0ahUKEwj7wPbPnoDvAhXRTsAKHSZzD1EQ4dUDCA0&amp;uact=5</t>
   </si>
   <si>
     <t>Snake</t>
   </si>
   <si>
-    <t>https://www.giocogiochi.it/Temple-Run-2-online</t>
-  </si>
-  <si>
-    <t>Temple run</t>
-  </si>
-  <si>
     <t>https://play2048.co/</t>
   </si>
   <si>
-    <t>https://murks.itch.io/cookiest</t>
-  </si>
-  <si>
-    <t>Survival of Cookie</t>
-  </si>
-  <si>
     <t>https://mvolution.itch.io/quarantine</t>
   </si>
   <si>
     <t>Life in Quarantine</t>
   </si>
   <si>
-    <t>YEs</t>
-  </si>
-  <si>
-    <t>GAMES</t>
-  </si>
-  <si>
-    <t>MOTION</t>
-  </si>
-  <si>
-    <t>Tettri</t>
-  </si>
-  <si>
-    <t>https://www.mathsisfun.com/games/tetris.html</t>
+    <t>Number of Players</t>
+  </si>
+  <si>
+    <t>Multiplayer</t>
+  </si>
+  <si>
+    <t>Single Player</t>
+  </si>
+  <si>
+    <t>https://toytheater.com/maze/</t>
+  </si>
+  <si>
+    <t>Spaceship Maze</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>https://www.happyclicks.net/touch-tap-games/12_baby_games_boris.php</t>
+  </si>
+  <si>
+    <t>Either</t>
+  </si>
+  <si>
+    <t>Boris the Magician</t>
+  </si>
+  <si>
+    <t>https://www.happyclicks.net/touch-tap-games/baby_games_ships.php</t>
+  </si>
+  <si>
+    <t>Colourful Ships</t>
   </si>
 </sst>
 </file>
@@ -123,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +130,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -156,18 +150,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -490,223 +489,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42499C7-8CFB-604B-B6CC-1F41D2077263}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.8984375" customWidth="1"/>
     <col min="6" max="6" width="255.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2048</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>2048</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{3553DF74-FE38-AE45-AED9-B04E8224515A}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{5B231EB4-1D19-A940-A75B-A507F112A72C}"/>
-    <hyperlink ref="F5" r:id="rId3" display="https://www.google.com/search?safe=strict&amp;ei=GhQ1YPvLD9GdgQam5r2IBQ&amp;q=google+snake&amp;oq=google+snake&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEMQCMgIIADICCAAyAggAMgIIADIGCAAQFhAeMgYIABAWEB4yBggAEBYQHjIGCAAQFhAeMgYIABAWEB46BwgAEEcQsAM6BAgAEENQsaUjWLetI2DhriNoAXACeACAAYMBiAG4A5IBAzUuMZgBAKABAaoBB2d3cy13aXrIAQjAAQE&amp;sclient=gws-wiz&amp;ved=0ahUKEwj7wPbPnoDvAhXRTsAKHSZzD1EQ4dUDCA0&amp;uact=5" xr:uid="{1B62BF6B-ADFD-0E4D-9B04-001BC55CD16F}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{2631684A-2A2E-5A4D-AE77-AFC7A7C9315C}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{DA271605-BEFA-1249-9B40-189C6A8F9804}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{CDE6AFFE-F552-444A-A2C5-D2711F7D0FCC}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{FFA531F4-9A1A-1746-9004-A5B394DE8925}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{3553DF74-FE38-AE45-AED9-B04E8224515A}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{5B231EB4-1D19-A940-A75B-A507F112A72C}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://www.google.com/search?safe=strict&amp;ei=GhQ1YPvLD9GdgQam5r2IBQ&amp;q=google+snake&amp;oq=google+snake&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEMQCMgIIADICCAAyAggAMgIIADIGCAAQFhAeMgYIABAWEB4yBggAEBYQHjIGCAAQFhAeMgYIABAWEB46BwgAEEcQsAM6BAgAEENQsaUjWLetI2DhriNoAXACeACAAYMBiAG4A5IBAzUuMZgBAKABAaoBB2d3cy13aXrIAQjAAQE&amp;sclient=gws-wiz&amp;ved=0ahUKEwj7wPbPnoDvAhXRTsAKHSZzD1EQ4dUDCA0&amp;uact=5" xr:uid="{1B62BF6B-ADFD-0E4D-9B04-001BC55CD16F}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{DA271605-BEFA-1249-9B40-189C6A8F9804}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{FFA531F4-9A1A-1746-9004-A5B394DE8925}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{8B8A5EEE-595B-4DF4-9A20-3A6B6873D571}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{E3DC8F30-E648-45FB-9982-07BA5B265FF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/games.xlsx
+++ b/src/main/java/games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\Ankle\src\main\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8BFF35-242D-4249-99D7-564798059D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43D4D0C-90BC-4177-8360-9D9D9DD8DC72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{452B83E8-9793-7541-B2A2-F06D9F6E25C9}"/>
   </bookViews>
@@ -25,47 +25,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>https://www.google.com/logos/2010/pacman10-i.html</t>
   </si>
   <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>https://trex-runner.com/</t>
-  </si>
-  <si>
-    <t>T-REX RUNNER</t>
-  </si>
-  <si>
     <t>Titlte</t>
   </si>
   <si>
-    <t>https://www.google.com/search?safe=strict&amp;ei=GhQ1YPvLD9GdgQam5r2IBQ&amp;q=google+snake&amp;oq=google+snake&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEMQCMgIIADICCAAyAggAMgIIADIGCAAQFhAeMgYIABAWEB4yBggAEBYQHjIGCAAQFhAeMgYIABAWEB46BwgAEEcQsAM6BAgAEENQsaUjWLetI2DhriNoAXACeACAAYMBiAG4A5IBAzUuMZgBAKABAaoBB2d3cy13aXrIAQjAAQE&amp;sclient=gws-wiz&amp;ved=0ahUKEwj7wPbPnoDvAhXRTsAKHSZzD1EQ4dUDCA0&amp;uact=5</t>
-  </si>
-  <si>
-    <t>Snake</t>
-  </si>
-  <si>
     <t>https://play2048.co/</t>
   </si>
   <si>
-    <t>https://mvolution.itch.io/quarantine</t>
-  </si>
-  <si>
-    <t>Life in Quarantine</t>
-  </si>
-  <si>
     <t>Number of Players</t>
   </si>
   <si>
     <t>Multiplayer</t>
   </si>
   <si>
-    <t>Single Player</t>
-  </si>
-  <si>
     <t>https://toytheater.com/maze/</t>
   </si>
   <si>
@@ -88,6 +64,9 @@
   </si>
   <si>
     <t>Colourful Ships</t>
+  </si>
+  <si>
+    <t>Pac-Man (for the brave)</t>
   </si>
 </sst>
 </file>
@@ -150,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,6 +152,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -489,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42499C7-8CFB-604B-B6CC-1F41D2077263}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -497,135 +483,87 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.8984375" customWidth="1"/>
-    <col min="6" max="6" width="255.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="4"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2048</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>2048</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -633,13 +571,10 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{3553DF74-FE38-AE45-AED9-B04E8224515A}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{5B231EB4-1D19-A940-A75B-A507F112A72C}"/>
-    <hyperlink ref="C5" r:id="rId3" display="https://www.google.com/search?safe=strict&amp;ei=GhQ1YPvLD9GdgQam5r2IBQ&amp;q=google+snake&amp;oq=google+snake&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBQgAEMQCMgIIADICCAAyAggAMgIIADIGCAAQFhAeMgYIABAWEB4yBggAEBYQHjIGCAAQFhAeMgYIABAWEB46BwgAEEcQsAM6BAgAEENQsaUjWLetI2DhriNoAXACeACAAYMBiAG4A5IBAzUuMZgBAKABAaoBB2d3cy13aXrIAQjAAQE&amp;sclient=gws-wiz&amp;ved=0ahUKEwj7wPbPnoDvAhXRTsAKHSZzD1EQ4dUDCA0&amp;uact=5" xr:uid="{1B62BF6B-ADFD-0E4D-9B04-001BC55CD16F}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{DA271605-BEFA-1249-9B40-189C6A8F9804}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{FFA531F4-9A1A-1746-9004-A5B394DE8925}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{8B8A5EEE-595B-4DF4-9A20-3A6B6873D571}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{E3DC8F30-E648-45FB-9982-07BA5B265FF3}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{DA271605-BEFA-1249-9B40-189C6A8F9804}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{8B8A5EEE-595B-4DF4-9A20-3A6B6873D571}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{5653699D-3766-49FC-A5A4-FE690C4E510B}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{3553DF74-FE38-AE45-AED9-B04E8224515A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
